--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_18-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_18-52.xlsx
@@ -68,6 +68,9 @@
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1077,17 +1080,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1095,7 +1098,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1103,17 +1106,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1129,17 +1132,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1147,7 +1150,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1155,17 +1158,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1181,17 +1184,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>43.329999999999998</v>
+        <v>248</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1207,17 +1210,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>22</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,17 +1236,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1259,17 +1262,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1277,7 +1280,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1285,17 +1288,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1303,7 +1306,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1311,17 +1314,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1337,17 +1340,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1355,7 +1358,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1363,17 +1366,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1381,7 +1384,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1389,17 +1392,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1407,7 +1410,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1415,17 +1418,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1441,17 +1444,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1459,7 +1462,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1467,17 +1470,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1485,7 +1488,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1493,17 +1496,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1519,17 +1522,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>55.670000000000002</v>
+        <v>48</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1537,7 +1540,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1545,17 +1548,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>1475</v>
+        <v>34</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1563,7 +1566,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1571,17 +1574,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>92</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1597,17 +1600,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>75</v>
+        <v>1475</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1623,13 +1626,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1649,17 +1652,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1675,13 +1678,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1701,17 +1704,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1727,17 +1730,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1759,7 +1762,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1779,13 +1782,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1811,7 +1814,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1831,17 +1834,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>7.0499999999999998</v>
+        <v>51</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1863,7 +1866,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>221.16</v>
+        <v>130</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1883,17 +1886,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>58</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.5</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1915,7 +1918,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>160.55000000000001</v>
+        <v>221.16</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1935,17 +1938,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1953,7 +1956,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1961,13 +1964,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>192</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -1979,7 +1982,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1987,17 +1990,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2019,7 +2022,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>115.2</v>
+        <v>192</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2039,13 +2042,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>28.710000000000001</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2065,17 +2068,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30</v>
+        <v>115.2</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2097,11 +2100,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>250</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2117,13 +2120,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2143,13 +2146,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2161,7 +2164,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2169,17 +2172,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2187,7 +2190,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2195,13 +2198,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2213,7 +2216,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2221,17 +2224,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2239,7 +2242,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2247,13 +2250,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2265,7 +2268,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2273,13 +2276,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2291,7 +2294,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2299,13 +2302,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2317,7 +2320,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2325,17 +2328,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2343,7 +2346,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2351,17 +2354,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2369,7 +2372,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2377,17 +2380,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2395,7 +2398,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2403,17 +2406,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2421,7 +2424,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2429,17 +2432,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2447,7 +2450,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2455,17 +2458,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2473,7 +2476,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2481,17 +2484,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2499,7 +2502,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2507,17 +2510,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2525,7 +2528,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2533,13 +2536,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2547,37 +2550,89 @@
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
-      <c r="K68" s="11">
-        <v>5391.1700000000001</v>
-      </c>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" ht="17.25" customHeight="1">
-      <c t="s" r="A69" s="12">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>96</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>86</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>45</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
         <v>97</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c t="s" r="F69" s="13">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>86</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="N69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="26.25" customHeight="1">
+      <c r="K70" s="11">
+        <v>5480.1700000000001</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="12">
         <v>98</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="14"/>
-      <c t="s" r="I69" s="15">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c t="s" r="F71" s="13">
         <v>99</v>
       </c>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14"/>
+      <c t="s" r="I71" s="15">
+        <v>100</v>
+      </c>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="209">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2777,10 +2832,16 @@
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:N71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
